--- a/0_intro/lighting_tech.xlsx
+++ b/0_intro/lighting_tech.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24270" windowHeight="12570" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="24270" windowHeight="12570"/>
   </bookViews>
   <sheets>
-    <sheet name="Lighting technologies" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Comparison table" sheetId="3" r:id="rId1"/>
+    <sheet name="Lighting technologies" sheetId="1" r:id="rId2"/>
     <sheet name="Lighting technologies II" sheetId="2" r:id="rId3"/>
+    <sheet name="Installed lightings" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="155">
   <si>
     <t>Type</t>
   </si>
@@ -665,17 +666,48 @@
   <si>
     <t>Lument cost of ownershipr(1kH)</t>
   </si>
+  <si>
+    <t>CFL</t>
+  </si>
+  <si>
+    <t>MASTER PL-Electronic 11W/827 E27 230-240V 1CT</t>
+  </si>
+  <si>
+    <t>LED Tube (No dimmable)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MASTER LEDtube PERF 600mm 10.5W830 T8 I ROT
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Led Budget </t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Emergy Cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Office Lumen </t>
+  </si>
+  <si>
+    <t>Office size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Office cost[25m2]   </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="168" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
-    <numFmt numFmtId="169" formatCode="#,##0.00\ [$€-1];[Red]\-#,##0.00\ [$€-1]"/>
-    <numFmt numFmtId="170" formatCode="#,##0.00\ [$€-1];[Red]#,##0.00\ [$€-1]"/>
+    <numFmt numFmtId="164" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ [$€-1];[Red]\-#,##0.00\ [$€-1]"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00\ [$€-1];[Red]#,##0.00\ [$€-1]"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -706,13 +738,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -816,7 +841,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -854,26 +879,8 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -897,19 +904,16 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -917,11 +921,29 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -938,6 +960,1253 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>288237</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>41257</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="218073" cy="219163"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2298340" y="2898757"/>
+              <a:ext cx="218073" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑊</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2298340" y="2898757"/>
+              <a:ext cx="218073" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑊</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>261961</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28119</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="250902" cy="219163"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2272064" y="3187791"/>
+              <a:ext cx="250902" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑙𝑚</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2272064" y="3187791"/>
+              <a:ext cx="250902" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑙𝑚</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>84599</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>34688</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="516423" cy="219163"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2094702" y="3496533"/>
+              <a:ext cx="516423" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑙𝑚</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>/</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑊</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2094702" y="3496533"/>
+              <a:ext cx="516423" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑙𝑚/𝑊</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>248823</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>34688</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="144911" cy="219163"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="TextBox 5"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2258926" y="3798705"/>
+              <a:ext cx="144911" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑘</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="TextBox 5"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2258926" y="3798705"/>
+              <a:ext cx="144911" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑘</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>242254</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>67533</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="143244" cy="219163"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="TextBox 6"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2252357" y="4435895"/>
+              <a:ext cx="143244" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>h</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="TextBox 6"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2252357" y="4435895"/>
+              <a:ext cx="143244" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>ℎ</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>183133</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>60964</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="443198" cy="219163"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="TextBox 7"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2193236" y="5033671"/>
+              <a:ext cx="443198" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>€/</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑘h</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="TextBox 7"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2193236" y="5033671"/>
+              <a:ext cx="443198" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>€/𝑘ℎ</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>71461</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>60964</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="650434" cy="219163"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="TextBox 8"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2081564" y="4731498"/>
+              <a:ext cx="650434" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑘𝑙𝑚h</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>/€</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="TextBox 8"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2081564" y="4731498"/>
+              <a:ext cx="650434" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑘𝑙𝑚ℎ/€</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>169995</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>54395</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="608756" cy="219163"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="TextBox 9"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3198288" y="244895"/>
+              <a:ext cx="608756" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1400" b="0" i="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>€/</m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:sty m:val="p"/>
+                      </m:rPr>
+                      <a:rPr lang="en-US" sz="1400" b="0" i="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>k</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑊h</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="TextBox 9"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3198288" y="244895"/>
+              <a:ext cx="608756" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>€/k𝑊ℎ</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>176564</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>60964</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="443198" cy="219163"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="TextBox 10"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2186667" y="3529378"/>
+              <a:ext cx="443198" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>€/</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑘h</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="TextBox 10"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2186667" y="3529378"/>
+              <a:ext cx="443198" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>€/𝑘ℎ</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>130581</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>8413</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="559449" cy="223074"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="TextBox 11"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3158874" y="487947"/>
+              <a:ext cx="559449" cy="223074"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <m:rPr>
+                        <m:sty m:val="p"/>
+                      </m:rPr>
+                      <a:rPr lang="en-US" sz="1400" b="0" i="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>lm</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1400" b="0" i="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>/</m:t>
+                    </m:r>
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1400" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>m</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1400" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="TextBox 11"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3158874" y="487947"/>
+              <a:ext cx="559449" cy="223074"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>lm/m^2</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1203,6 +2472,722 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:P26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="13" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2">
+        <f>$P$4</f>
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>112</v>
+      </c>
+      <c r="P3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="P4">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22">
+        <v>60</v>
+      </c>
+      <c r="E5" s="22">
+        <v>42</v>
+      </c>
+      <c r="F5" s="22">
+        <v>14</v>
+      </c>
+      <c r="G5" s="22">
+        <v>10</v>
+      </c>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22">
+        <v>12.5</v>
+      </c>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22">
+        <v>860</v>
+      </c>
+      <c r="E6" s="22">
+        <v>650</v>
+      </c>
+      <c r="F6" s="22">
+        <v>800</v>
+      </c>
+      <c r="G6" s="22">
+        <v>800</v>
+      </c>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22">
+        <v>800</v>
+      </c>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22">
+        <v>14.3</v>
+      </c>
+      <c r="E7" s="22">
+        <v>14.42</v>
+      </c>
+      <c r="F7" s="22">
+        <v>57.14</v>
+      </c>
+      <c r="G7" s="22">
+        <v>80</v>
+      </c>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22">
+        <v>64</v>
+      </c>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22">
+        <v>93.4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22">
+        <v>2700</v>
+      </c>
+      <c r="E8" s="22">
+        <v>3100</v>
+      </c>
+      <c r="F8" s="22">
+        <v>2700</v>
+      </c>
+      <c r="G8" s="22">
+        <v>3000</v>
+      </c>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22">
+        <v>2700</v>
+      </c>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22">
+        <v>100</v>
+      </c>
+      <c r="E9" s="22">
+        <v>100</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22">
+        <v>85</v>
+      </c>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="23">
+        <v>1000</v>
+      </c>
+      <c r="E10" s="23">
+        <v>2000</v>
+      </c>
+      <c r="F10" s="23">
+        <v>8000</v>
+      </c>
+      <c r="G10" s="23">
+        <v>25000</v>
+      </c>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23">
+        <v>25000</v>
+      </c>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="22"/>
+    </row>
+    <row r="12" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13">
+        <v>500</v>
+      </c>
+      <c r="E13" t="s">
+        <v>153</v>
+      </c>
+      <c r="F13">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="22"/>
+      <c r="C15" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H15" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="I15" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="J15" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="K15" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="L15" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="M15" s="31" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22">
+        <v>100</v>
+      </c>
+      <c r="E16" s="22">
+        <v>53</v>
+      </c>
+      <c r="F16" s="22">
+        <v>36</v>
+      </c>
+      <c r="G16" s="22">
+        <v>39</v>
+      </c>
+      <c r="H16" s="22">
+        <v>11</v>
+      </c>
+      <c r="I16" s="22">
+        <v>70</v>
+      </c>
+      <c r="J16" s="22">
+        <v>10</v>
+      </c>
+      <c r="K16" s="22">
+        <v>13</v>
+      </c>
+      <c r="L16">
+        <v>9</v>
+      </c>
+      <c r="M16">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22">
+        <v>1203</v>
+      </c>
+      <c r="E17" s="29">
+        <v>845</v>
+      </c>
+      <c r="F17" s="22">
+        <v>3100</v>
+      </c>
+      <c r="G17" s="22">
+        <v>3100</v>
+      </c>
+      <c r="H17" s="22">
+        <v>600</v>
+      </c>
+      <c r="I17" s="22">
+        <v>5600</v>
+      </c>
+      <c r="J17" s="22">
+        <v>600</v>
+      </c>
+      <c r="K17" s="22">
+        <v>1055</v>
+      </c>
+      <c r="L17" s="22">
+        <v>600</v>
+      </c>
+      <c r="M17" s="22">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22">
+        <v>14.3</v>
+      </c>
+      <c r="E18" s="22">
+        <v>14.42</v>
+      </c>
+      <c r="F18" s="22">
+        <v>57.14</v>
+      </c>
+      <c r="G18" s="22">
+        <v>57.14</v>
+      </c>
+      <c r="H18" s="22">
+        <v>55</v>
+      </c>
+      <c r="I18" s="22">
+        <v>80</v>
+      </c>
+      <c r="J18" s="22">
+        <v>60</v>
+      </c>
+      <c r="K18" s="22">
+        <v>81.150000000000006</v>
+      </c>
+      <c r="L18" s="22">
+        <v>66.7</v>
+      </c>
+      <c r="M18" s="22">
+        <v>90.5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22">
+        <v>2700</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="F19" s="22">
+        <v>4000</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="H19" s="22">
+        <v>2700</v>
+      </c>
+      <c r="I19" s="22">
+        <v>2000</v>
+      </c>
+      <c r="J19" s="22">
+        <v>2700</v>
+      </c>
+      <c r="K19" s="22">
+        <v>2700</v>
+      </c>
+      <c r="L19" s="22">
+        <v>2200</v>
+      </c>
+      <c r="M19">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22">
+        <v>100</v>
+      </c>
+      <c r="E20" s="22">
+        <v>100</v>
+      </c>
+      <c r="F20" s="22">
+        <v>85</v>
+      </c>
+      <c r="G20" s="22">
+        <v>85</v>
+      </c>
+      <c r="H20" s="22">
+        <v>82</v>
+      </c>
+      <c r="I20" s="22">
+        <v>25</v>
+      </c>
+      <c r="J20" s="22">
+        <v>87</v>
+      </c>
+      <c r="K20" s="22">
+        <v>80</v>
+      </c>
+      <c r="L20" s="22">
+        <v>80</v>
+      </c>
+      <c r="M20" s="22">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="23">
+        <v>1000</v>
+      </c>
+      <c r="E21" s="23">
+        <v>2000</v>
+      </c>
+      <c r="F21" s="23">
+        <v>20000</v>
+      </c>
+      <c r="G21" s="23">
+        <v>24000</v>
+      </c>
+      <c r="H21" s="23">
+        <v>15000</v>
+      </c>
+      <c r="I21" s="23">
+        <v>28000</v>
+      </c>
+      <c r="J21" s="23">
+        <v>25000</v>
+      </c>
+      <c r="K21" s="23">
+        <v>25000</v>
+      </c>
+      <c r="L21" s="22">
+        <v>15000</v>
+      </c>
+      <c r="M21" s="22">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" s="22"/>
+      <c r="D22" s="30">
+        <f>D17/(D23)</f>
+        <v>48.12</v>
+      </c>
+      <c r="E22" s="30">
+        <f t="shared" ref="E22:M22" si="0">E17/(E23)</f>
+        <v>59.423347398030948</v>
+      </c>
+      <c r="F22" s="30">
+        <f t="shared" si="0"/>
+        <v>347.61157210136804</v>
+      </c>
+      <c r="G22" s="30">
+        <f t="shared" si="0"/>
+        <v>324.19713277266987</v>
+      </c>
+      <c r="H22" s="30">
+        <f t="shared" si="0"/>
+        <v>186.02728400165361</v>
+      </c>
+      <c r="I22" s="30">
+        <f t="shared" si="0"/>
+        <v>323.52577064333758</v>
+      </c>
+      <c r="J22" s="30">
+        <f t="shared" si="0"/>
+        <v>232.55813953488371</v>
+      </c>
+      <c r="K22" s="30">
+        <f t="shared" si="0"/>
+        <v>229.18839068474105</v>
+      </c>
+      <c r="L22" s="30">
+        <f t="shared" si="0"/>
+        <v>182.18623481781373</v>
+      </c>
+      <c r="M22" s="30">
+        <f t="shared" si="0"/>
+        <v>281.13162878787881</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" s="22"/>
+      <c r="D23" s="27">
+        <f>1000*(D16*$C$2*(D21/1000)+D25)/D21</f>
+        <v>25</v>
+      </c>
+      <c r="E23" s="27">
+        <f t="shared" ref="E23:M23" si="1">1000*(E16*$C$2*(E21/1000)+E25)/E21</f>
+        <v>14.219999999999999</v>
+      </c>
+      <c r="F23" s="27">
+        <f t="shared" si="1"/>
+        <v>8.9179999999999993</v>
+      </c>
+      <c r="G23" s="27">
+        <f t="shared" si="1"/>
+        <v>9.5620833333333319</v>
+      </c>
+      <c r="H23" s="27">
+        <f t="shared" si="1"/>
+        <v>3.2253333333333329</v>
+      </c>
+      <c r="I23" s="27">
+        <f t="shared" si="1"/>
+        <v>17.309285714285714</v>
+      </c>
+      <c r="J23" s="27">
+        <f t="shared" si="1"/>
+        <v>2.58</v>
+      </c>
+      <c r="K23" s="27">
+        <f t="shared" si="1"/>
+        <v>4.6032000000000002</v>
+      </c>
+      <c r="L23" s="27">
+        <f t="shared" si="1"/>
+        <v>3.2933333333333339</v>
+      </c>
+      <c r="M23" s="27">
+        <f t="shared" si="1"/>
+        <v>3.3792</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C24" s="22"/>
+      <c r="D24" s="25">
+        <f>$F$13*$C$13/D22</f>
+        <v>259.7672485453034</v>
+      </c>
+      <c r="E24" s="25">
+        <f t="shared" ref="E24:M24" si="2">$F$13*$C$13/E22</f>
+        <v>210.3550295857988</v>
+      </c>
+      <c r="F24" s="25">
+        <f t="shared" si="2"/>
+        <v>35.95967741935484</v>
+      </c>
+      <c r="G24" s="25">
+        <f t="shared" si="2"/>
+        <v>38.5567876344086</v>
+      </c>
+      <c r="H24" s="25">
+        <f t="shared" si="2"/>
+        <v>67.194444444444429</v>
+      </c>
+      <c r="I24" s="25">
+        <f t="shared" si="2"/>
+        <v>38.636798469387756</v>
+      </c>
+      <c r="J24" s="25">
+        <f t="shared" si="2"/>
+        <v>53.75</v>
+      </c>
+      <c r="K24" s="25">
+        <f t="shared" si="2"/>
+        <v>54.540284360189574</v>
+      </c>
+      <c r="L24" s="25">
+        <f t="shared" si="2"/>
+        <v>68.611111111111128</v>
+      </c>
+      <c r="M24" s="25">
+        <f t="shared" si="2"/>
+        <v>44.463157894736838</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="C25" s="22"/>
+      <c r="D25" s="24">
+        <v>1</v>
+      </c>
+      <c r="E25" s="24">
+        <v>3</v>
+      </c>
+      <c r="F25" s="26">
+        <v>5.56</v>
+      </c>
+      <c r="G25" s="26">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="H25" s="26">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="I25" s="26">
+        <v>14.26</v>
+      </c>
+      <c r="J25" s="26">
+        <v>4.5</v>
+      </c>
+      <c r="K25" s="26">
+        <v>37.08</v>
+      </c>
+      <c r="L25" s="32">
+        <v>17</v>
+      </c>
+      <c r="M25" s="26">
+        <v>42.96</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="E26" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="F26" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="G26" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="H26" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="I26" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="L26" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="M26" s="33" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G15" r:id="rId1"/>
+    <hyperlink ref="F15" r:id="rId2"/>
+    <hyperlink ref="E15" r:id="rId3"/>
+    <hyperlink ref="I15" r:id="rId4"/>
+    <hyperlink ref="K15" r:id="rId5"/>
+    <hyperlink ref="L15" r:id="rId6"/>
+    <hyperlink ref="H15" r:id="rId7"/>
+    <hyperlink ref="M15" r:id="rId8" display="LED Tube"/>
+    <hyperlink ref="J15" r:id="rId9"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <drawing r:id="rId11"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H10"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -1239,7 +3224,7 @@
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="34" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -1254,13 +3239,13 @@
       <c r="F4" s="7">
         <v>2800</v>
       </c>
-      <c r="G4" s="27"/>
+      <c r="G4" s="21"/>
       <c r="H4">
         <v>1000</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
@@ -1273,13 +3258,13 @@
       <c r="F5" s="11">
         <v>2800</v>
       </c>
-      <c r="G5" s="27"/>
+      <c r="G5" s="21"/>
       <c r="H5">
         <v>1000</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="8" t="s">
         <v>7</v>
       </c>
@@ -1292,13 +3277,13 @@
       <c r="F6" s="11">
         <v>2800</v>
       </c>
-      <c r="G6" s="27"/>
+      <c r="G6" s="21"/>
       <c r="H6">
         <v>1000</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="8" t="s">
         <v>11</v>
       </c>
@@ -1311,13 +3296,13 @@
       <c r="F7" s="11">
         <v>3200</v>
       </c>
-      <c r="G7" s="27"/>
+      <c r="G7" s="21"/>
       <c r="H7">
         <v>2000</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="17"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="12" t="s">
         <v>12</v>
       </c>
@@ -1330,7 +3315,7 @@
       <c r="F8" s="14">
         <v>3200</v>
       </c>
-      <c r="G8" s="27"/>
+      <c r="G8" s="21"/>
       <c r="H8">
         <v>2000</v>
       </c>
@@ -1342,7 +3327,7 @@
       <c r="D9" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="20" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1353,7 +3338,7 @@
       <c r="D10" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="18" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1373,520 +3358,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:M25"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.85546875" customWidth="1"/>
-    <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>112</v>
-      </c>
-      <c r="M3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="28"/>
-      <c r="C4" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="M4">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="C5" s="28">
-        <v>60</v>
-      </c>
-      <c r="D5" s="28">
-        <v>42</v>
-      </c>
-      <c r="E5" s="28">
-        <v>14</v>
-      </c>
-      <c r="F5" s="28">
-        <v>10</v>
-      </c>
-      <c r="G5" s="28">
-        <v>12.5</v>
-      </c>
-      <c r="H5" s="28">
-        <v>9.6999999999999993</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="C6" s="28">
-        <v>860</v>
-      </c>
-      <c r="D6" s="28">
-        <v>650</v>
-      </c>
-      <c r="E6" s="28">
-        <v>800</v>
-      </c>
-      <c r="F6" s="28">
-        <v>800</v>
-      </c>
-      <c r="G6" s="28">
-        <v>800</v>
-      </c>
-      <c r="H6" s="28">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="C7" s="28">
-        <v>14.3</v>
-      </c>
-      <c r="D7" s="28">
-        <v>14.42</v>
-      </c>
-      <c r="E7" s="28">
-        <v>57.14</v>
-      </c>
-      <c r="F7" s="28">
-        <v>80</v>
-      </c>
-      <c r="G7" s="28">
-        <v>64</v>
-      </c>
-      <c r="H7" s="28">
-        <v>93.4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C8" s="28">
-        <v>2700</v>
-      </c>
-      <c r="D8" s="28">
-        <v>3100</v>
-      </c>
-      <c r="E8" s="28">
-        <v>2700</v>
-      </c>
-      <c r="F8" s="28">
-        <v>3000</v>
-      </c>
-      <c r="G8" s="28">
-        <v>2700</v>
-      </c>
-      <c r="H8" s="28">
-        <v>2727</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="C9" s="28">
-        <v>100</v>
-      </c>
-      <c r="D9" s="28">
-        <v>100</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="G9" s="28">
-        <v>85</v>
-      </c>
-      <c r="H9" s="28">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="C10" s="29">
-        <v>1000</v>
-      </c>
-      <c r="D10" s="29">
-        <v>2000</v>
-      </c>
-      <c r="E10" s="29">
-        <v>8000</v>
-      </c>
-      <c r="F10" s="29">
-        <v>25000</v>
-      </c>
-      <c r="G10" s="29">
-        <v>25000</v>
-      </c>
-      <c r="H10" s="29">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="28" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="C12" s="28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="28"/>
-      <c r="C15" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="E15" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="F15" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="G15" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="H15" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="I15" s="39" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="C16" s="28">
-        <v>100</v>
-      </c>
-      <c r="D16" s="28">
-        <v>53</v>
-      </c>
-      <c r="E16" s="28">
-        <v>36</v>
-      </c>
-      <c r="F16" s="28">
-        <v>39</v>
-      </c>
-      <c r="G16" s="28">
-        <v>70</v>
-      </c>
-      <c r="H16" s="28">
-        <v>13</v>
-      </c>
-      <c r="I16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="C17" s="28">
-        <v>1203</v>
-      </c>
-      <c r="D17" s="36">
-        <v>845</v>
-      </c>
-      <c r="E17" s="28">
-        <v>3100</v>
-      </c>
-      <c r="F17" s="28">
-        <v>3100</v>
-      </c>
-      <c r="G17" s="28">
-        <v>5600</v>
-      </c>
-      <c r="H17" s="28">
-        <v>1055</v>
-      </c>
-      <c r="I17" s="28">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="C18" s="28">
-        <v>14.3</v>
-      </c>
-      <c r="D18" s="28">
-        <v>14.42</v>
-      </c>
-      <c r="E18" s="28">
-        <v>57.14</v>
-      </c>
-      <c r="F18" s="28">
-        <v>57.14</v>
-      </c>
-      <c r="G18" s="28">
-        <v>80</v>
-      </c>
-      <c r="H18" s="28">
-        <v>81.150000000000006</v>
-      </c>
-      <c r="I18" s="28">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B19" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" s="28">
-        <v>2700</v>
-      </c>
-      <c r="D19" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="E19" s="28">
-        <v>4000</v>
-      </c>
-      <c r="F19" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="G19" s="28">
-        <v>2000</v>
-      </c>
-      <c r="H19" s="28">
-        <v>2700</v>
-      </c>
-      <c r="I19" s="28">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="C20" s="28">
-        <v>100</v>
-      </c>
-      <c r="D20" s="28">
-        <v>100</v>
-      </c>
-      <c r="E20" s="28">
-        <v>85</v>
-      </c>
-      <c r="F20" s="28">
-        <v>85</v>
-      </c>
-      <c r="G20" s="28">
-        <v>25</v>
-      </c>
-      <c r="H20" s="28">
-        <v>80</v>
-      </c>
-      <c r="I20" s="28">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="C21" s="29">
-        <v>1000</v>
-      </c>
-      <c r="D21" s="29">
-        <v>2000</v>
-      </c>
-      <c r="E21" s="29">
-        <v>20000</v>
-      </c>
-      <c r="F21" s="29">
-        <v>24000</v>
-      </c>
-      <c r="G21" s="29">
-        <v>28000</v>
-      </c>
-      <c r="H21" s="29">
-        <v>25000</v>
-      </c>
-      <c r="I21" s="28">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="C22" s="37">
-        <f>C17/(C23)</f>
-        <v>48.12</v>
-      </c>
-      <c r="D22" s="37">
-        <f t="shared" ref="D22:I22" si="0">D17/(D23)</f>
-        <v>59.423347398030948</v>
-      </c>
-      <c r="E22" s="37">
-        <f t="shared" si="0"/>
-        <v>347.61157210136804</v>
-      </c>
-      <c r="F22" s="37">
-        <f t="shared" si="0"/>
-        <v>324.19713277266987</v>
-      </c>
-      <c r="G22" s="37">
-        <f t="shared" si="0"/>
-        <v>323.52577064333769</v>
-      </c>
-      <c r="H22" s="37">
-        <f t="shared" si="0"/>
-        <v>229.18839068474105</v>
-      </c>
-      <c r="I22" s="37">
-        <f t="shared" si="0"/>
-        <v>179.57927142124166</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="C23" s="31">
-        <f>C16*M4*C21/1000+C24</f>
-        <v>25</v>
-      </c>
-      <c r="D23" s="33">
-        <f>1000*(D16*$M$4*D21/1000+D24)/D21</f>
-        <v>14.219999999999999</v>
-      </c>
-      <c r="E23" s="31">
-        <f>1000*(E16*$M$4*E21/1000+E24)/(E21)</f>
-        <v>8.9179999999999993</v>
-      </c>
-      <c r="F23" s="31">
-        <f>1000*(F16*$M$4*F21/1000+F24)/(F21)</f>
-        <v>9.5620833333333319</v>
-      </c>
-      <c r="G23" s="31">
-        <f>1000*(G16*$M$4*G21/1000+G24)/(G21)</f>
-        <v>17.309285714285711</v>
-      </c>
-      <c r="H23" s="31">
-        <f>1000*(H16*$M$4*H21/1000+H24)/(H21)</f>
-        <v>4.6032000000000002</v>
-      </c>
-      <c r="I23" s="31">
-        <f>1000*(I16*$M$4*I21/1000+I24)/(I21)</f>
-        <v>1.9490000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="C24" s="30">
-        <v>1</v>
-      </c>
-      <c r="D24" s="30">
-        <v>3</v>
-      </c>
-      <c r="E24" s="32">
-        <v>5.56</v>
-      </c>
-      <c r="F24" s="32">
-        <v>4.8499999999999996</v>
-      </c>
-      <c r="G24" s="32">
-        <v>14.26</v>
-      </c>
-      <c r="H24" s="32">
-        <v>37.08</v>
-      </c>
-      <c r="I24" s="40">
-        <v>11.234999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
-        <v>136</v>
-      </c>
-      <c r="E25" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="F25" t="s">
-        <v>132</v>
-      </c>
-      <c r="G25" t="s">
-        <v>139</v>
-      </c>
-      <c r="H25" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="I25" t="s">
-        <v>142</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F15" r:id="rId1"/>
-    <hyperlink ref="E15" r:id="rId2"/>
-    <hyperlink ref="D15" r:id="rId3"/>
-    <hyperlink ref="G15" r:id="rId4"/>
-    <hyperlink ref="H15" r:id="rId5"/>
-    <hyperlink ref="I15" r:id="rId6"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C25" sqref="C25:E26"/>
     </sheetView>
   </sheetViews>
@@ -1899,10 +3375,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="39" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1913,12 +3389,12 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
       <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="15" t="s">
         <v>16</v>
       </c>
       <c r="F3" t="s">
@@ -1926,7 +3402,7 @@
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="38" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -1935,7 +3411,7 @@
       <c r="D4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="17">
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="F4" t="s">
@@ -1943,19 +3419,19 @@
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="20"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="21" t="s">
+    <row r="6" spans="2:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B6" s="37" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1964,7 +3440,7 @@
       <c r="D6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="18" t="s">
         <v>25</v>
       </c>
       <c r="F6">
@@ -1972,70 +3448,70 @@
       </c>
     </row>
     <row r="7" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="21"/>
+      <c r="B7" s="37"/>
       <c r="C7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="18" t="s">
         <v>28</v>
       </c>
       <c r="F7" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="21"/>
+    <row r="8" spans="2:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B8" s="37"/>
       <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="21"/>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="37"/>
       <c r="C9" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="17">
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="21"/>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="37"/>
       <c r="C10" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D10" s="2">
         <v>24</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="17">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="21"/>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="37"/>
       <c r="C11" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="17">
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="21" t="s">
+    <row r="12" spans="2:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B12" s="37" t="s">
         <v>37</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -2044,96 +3520,96 @@
       <c r="D12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="18" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="21"/>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="37"/>
       <c r="C13" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="21"/>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="37"/>
       <c r="C14" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="17">
         <v>0.14899999999999999</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="21"/>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="37"/>
       <c r="C15" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="18" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="21"/>
+      <c r="B16" s="37"/>
       <c r="C16" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="17">
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="21"/>
+      <c r="B17" s="37"/>
       <c r="C17" s="3" t="s">
         <v>51</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="17">
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="21"/>
+    <row r="18" spans="2:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B18" s="37"/>
       <c r="C18" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="18" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B19" s="21"/>
+    <row r="19" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B19" s="37"/>
       <c r="C19" s="2" t="s">
         <v>56</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="24" t="s">
+      <c r="E19" s="18" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="37" t="s">
         <v>59</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -2142,48 +3618,48 @@
       <c r="D20" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="24" t="s">
+      <c r="E20" s="18" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="21"/>
+      <c r="B21" s="37"/>
       <c r="C21" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="24" t="s">
+      <c r="E21" s="18" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B22" s="21"/>
+    <row r="22" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B22" s="37"/>
       <c r="C22" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="24" t="s">
+      <c r="E22" s="18" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="B23" s="21"/>
+    <row r="23" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B23" s="37"/>
       <c r="C23" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="24" t="s">
+      <c r="E23" s="18" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="B24" s="21" t="s">
+    <row r="24" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B24" s="37" t="s">
         <v>71</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -2192,60 +3668,60 @@
       <c r="D24" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="25">
+      <c r="E24" s="19">
         <v>0.09</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B25" s="21"/>
+    <row r="25" spans="2:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B25" s="37"/>
       <c r="C25" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E25" s="26" t="s">
+      <c r="E25" s="20" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B26" s="21"/>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="37"/>
       <c r="C26" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E26" s="24" t="s">
+      <c r="E26" s="18" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B27" s="21"/>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="37"/>
       <c r="C27" s="2" t="s">
         <v>80</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E27" s="25">
+      <c r="E27" s="19">
         <v>0.12</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B28" s="21"/>
+      <c r="B28" s="37"/>
       <c r="C28" s="2" t="s">
         <v>82</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E28" s="24" t="s">
+      <c r="E28" s="18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="37" t="s">
         <v>85</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -2254,60 +3730,60 @@
       <c r="D29" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E29" s="25">
+      <c r="E29" s="19">
         <v>0.15</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="21"/>
+      <c r="B30" s="37"/>
       <c r="C30" s="3" t="s">
         <v>88</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E30" s="24" t="s">
+      <c r="E30" s="18" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="21"/>
+      <c r="B31" s="37"/>
       <c r="C31" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E31" s="24" t="s">
+      <c r="E31" s="18" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B32" s="21"/>
+      <c r="B32" s="37"/>
       <c r="C32" s="3" t="s">
         <v>94</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E32" s="24" t="s">
+      <c r="E32" s="18" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="21"/>
+      <c r="B33" s="37"/>
       <c r="C33" s="3" t="s">
         <v>97</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E33" s="24" t="s">
+      <c r="E33" s="18" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="72" x14ac:dyDescent="0.25">
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="16" t="s">
         <v>100</v>
       </c>
       <c r="C34" s="3" t="s">
@@ -2316,12 +3792,12 @@
       <c r="D34" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E34" s="25">
+      <c r="E34" s="19">
         <v>0.05</v>
       </c>
     </row>
-    <row r="35" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B35" s="20" t="s">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="38" t="s">
         <v>103</v>
       </c>
       <c r="C35" s="3" t="s">
@@ -2330,19 +3806,19 @@
       <c r="D35" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E35" s="25">
+      <c r="E35" s="19">
         <v>0.37</v>
       </c>
     </row>
-    <row r="36" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B36" s="20"/>
+    <row r="36" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B36" s="38"/>
       <c r="C36" s="2" t="s">
         <v>106</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E36" s="25">
+      <c r="E36" s="19">
         <v>1</v>
       </c>
     </row>
@@ -2408,4 +3884,18 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>